--- a/data/case1/13/V1_1.xlsx
+++ b/data/case1/13/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999205852796</v>
+        <v>0.99999999139175599</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99495978515461336</v>
+        <v>0.99542249440631603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97617490622175307</v>
+        <v>0.97677190956773585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96834542348280295</v>
+        <v>0.96484215510203297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96098767964493548</v>
+        <v>0.95325842359145574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94423137584878769</v>
+        <v>0.92681712393285021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94040038767428669</v>
+        <v>0.92084082190625005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93420292368229507</v>
+        <v>0.91278545097208785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92807833849856203</v>
+        <v>0.90281728866262057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92286554376376384</v>
+        <v>0.89376591300209163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9220618806167904</v>
+        <v>0.89245966678232214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92078867515386564</v>
+        <v>0.8902307661794614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91771624091893145</v>
+        <v>0.88147178116315605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91354901780994824</v>
+        <v>0.87839144100135691</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9109576002670029</v>
+        <v>0.87684062450847122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90845114801610882</v>
+        <v>0.87557864220962278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90474326993788134</v>
+        <v>0.87444700500906847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90363436655032792</v>
+        <v>0.87457514460937646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99267883942650625</v>
+        <v>0.99380917045483752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98556183449765156</v>
+        <v>0.98145316569247187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98416335728265025</v>
+        <v>0.98005469764754749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98289885305095948</v>
+        <v>0.97879019465230632</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96913955315217493</v>
+        <v>0.97508272059941903</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95611810315665158</v>
+        <v>0.9730818113259615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94966101760368404</v>
+        <v>0.96662492940249689</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94319692395769672</v>
+        <v>0.92424180827153746</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94200741903674401</v>
+        <v>0.92090014273189591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93761963588624408</v>
+        <v>0.90827866721642669</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9350899935125313</v>
+        <v>0.89955994522625837</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92852094191527745</v>
+        <v>0.89546187133212951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92086822399406576</v>
+        <v>0.88780838627239089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91918896049475607</v>
+        <v>0.88612910499261377</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91866895831224804</v>
+        <v>0.88560910686182459</v>
       </c>
     </row>
   </sheetData>
